--- a/biology/Zoologie/Desmostylia/Desmostylia.xlsx
+++ b/biology/Zoologie/Desmostylia/Desmostylia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Desmostylia (les desmostyliens en français) sont un ordre fossile de mammifères semi-aquatiques herbivores. Sans descendance actuelle, le groupe a été placé au sein des téthythériens, avec les proboscidiens, les siréniens et les embrithopodes, ces derniers étant également exclusivement fossiles.
 </t>
@@ -511,10 +523,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom « desmostyliens » vient de celui du genre type, Desmostylus, ce qui signifie « colonnes liées », ainsi nommé par Marsh en 1888, en raison de la forme particulière des dents.
-L'écologie des desmostyliens a longtemps posé un problème, leur mode de vie semi-aquatique étant pressenti de par la nature des environnements de dépôt où leurs fossiles ont été découverts : des environnements côtiers, lagunaires, ou des estuaires. Des études isotopiques récentes[1] et morphométriques[2], ont fait la lumière sur ce mode de vie ; ces animaux étaient capables de se mouvoir dans l'eau comme sur terre, il semble cependant que leurs membres étaient plus adaptés à la marche qu'à la nage[2]. Les desmostyliens se rendaient donc fréquemment à terre, mais trouvaient cependant l'essentiel de leur nourriture dans l'eau, ainsi que le montrent les rapports isotopiques[1].
+L'écologie des desmostyliens a longtemps posé un problème, leur mode de vie semi-aquatique étant pressenti de par la nature des environnements de dépôt où leurs fossiles ont été découverts : des environnements côtiers, lagunaires, ou des estuaires. Des études isotopiques récentes et morphométriques, ont fait la lumière sur ce mode de vie ; ces animaux étaient capables de se mouvoir dans l'eau comme sur terre, il semble cependant que leurs membres étaient plus adaptés à la marche qu'à la nage. Les desmostyliens se rendaient donc fréquemment à terre, mais trouvaient cependant l'essentiel de leur nourriture dans l'eau, ainsi que le montrent les rapports isotopiques.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des familles et espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (13 juin 2021)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (13 juin 2021) :
 famille Behemotopsidae Inuzuka 1987 †
 Ashoroa laticosta Inuzuka, 2000
 Behemotops katsuiei Inuzuka 2000
